--- a/grandprog_xls_parser/table.xlsx
+++ b/grandprog_xls_parser/table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\python_apps\ded_xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\python_apps\github_stuff\grandprog_xls_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11617C5-1DA7-4CA4-B57C-9BAC990F4AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C75764-FE46-41B2-A04B-228B6038A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -161,11 +161,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -181,6 +207,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:L17"/>
+  <dimension ref="B1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="L8" sqref="L8:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -510,6 +545,19 @@
     <col min="12" max="12" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
     <row r="5" spans="2:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -574,14 +622,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -591,13 +637,11 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -608,13 +652,13 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="1" t="s">
-        <v>17</v>
+      <c r="L10" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -626,12 +670,12 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -643,12 +687,12 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -659,13 +703,13 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="2" t="s">
-        <v>19</v>
+      <c r="L13" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -677,12 +721,12 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -693,13 +737,13 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="1" t="s">
-        <v>21</v>
+      <c r="L15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -711,12 +755,12 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -728,10 +772,31 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="L8:L9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
